--- a/다모아 14계정.xlsx
+++ b/다모아 14계정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SBU\MBX_BUYNOW_MACRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D31E96-62EB-43F8-B9D1-EA4EFF867CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1123E-B130-4141-88F8-C6DAE9562A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{C622DDBB-FCDF-4DDF-9839-530FDC5FBABE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>@tedmanwnp961</t>
   </si>
@@ -176,10 +176,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>복구전번</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pc0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -233,6 +229,36 @@
   </si>
   <si>
     <t>lenovo2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jacobmarumbwa</t>
+  </si>
+  <si>
+    <t>nJuBFC2W55Bi</t>
+  </si>
+  <si>
+    <t>jacobmarumbwa@yahoo.com</t>
+  </si>
+  <si>
+    <t>jump4_lib4s</t>
+  </si>
+  <si>
+    <t>pO2NvyH5XjAg</t>
+  </si>
+  <si>
+    <t>jump4_lib4s@yahoo.com</t>
+  </si>
+  <si>
+    <t>복구번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,13 +372,16 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42908898-5D3C-469D-889E-C5CA06F62A30}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -694,8 +723,8 @@
       <c r="E1" s="3">
         <v>242065024642</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>46</v>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" thickBot="1">
@@ -712,8 +741,8 @@
       <c r="E2" s="3">
         <v>18499193083</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="41.25" thickBot="1">
@@ -730,8 +759,8 @@
       <c r="E3" s="3">
         <v>18496233965</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="41.25" thickBot="1">
@@ -748,8 +777,8 @@
       <c r="E4" s="3">
         <v>18293659106</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>49</v>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="41.25" thickBot="1">
@@ -766,8 +795,8 @@
       <c r="E5" s="3">
         <v>447983988250</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>50</v>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.25" thickBot="1">
@@ -784,8 +813,8 @@
       <c r="E6" s="3">
         <v>447944486954</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>51</v>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="41.25" thickBot="1">
@@ -802,8 +831,8 @@
       <c r="E7" s="3">
         <v>447940434751</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>52</v>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="41.25" thickBot="1">
@@ -820,8 +849,8 @@
       <c r="E8" s="3">
         <v>447983892459</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>53</v>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="41.25" thickBot="1">
@@ -838,8 +867,8 @@
       <c r="E9" s="3">
         <v>4915211367396</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="41.25" thickBot="1">
@@ -854,8 +883,8 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="7" t="s">
-        <v>55</v>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="41.25" thickBot="1">
@@ -870,8 +899,8 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="41.25" thickBot="1">
@@ -886,8 +915,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="7" t="s">
-        <v>59</v>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="41.25" thickBot="1">
@@ -902,7 +931,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="41.25" thickBot="1">
@@ -917,21 +946,52 @@
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="41.25" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
